--- a/mylib/aaa.xlsx
+++ b/mylib/aaa.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_test\TkEasyGUI\my-second-repo\mylib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C775A6C7-1CF7-4BA5-8651-2BDB211A587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B85A66B-B5A3-4D0D-A7FA-3597F59C4B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="375" windowWidth="17505" windowHeight="13838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8108" yWindow="4358" windowWidth="11474" windowHeight="10207" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
-    <sheet name="test2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -39,48 +38,6 @@
   </si>
   <si>
     <t>DDD</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>姓</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Osaka</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>Aichi</t>
   </si>
   <si>
     <t>AGE</t>
@@ -100,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,63 +84,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -205,16 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -520,7 +426,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -529,138 +435,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45292</v>
+      </c>
+      <c r="E2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45659</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43920</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43560</v>
+      </c>
+      <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8">
-        <v>45292</v>
-      </c>
-      <c r="E2" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C6" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45658</v>
+      </c>
+      <c r="E6" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8">
-        <v>45659</v>
-      </c>
-      <c r="E3" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>71</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44291</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
-        <v>70</v>
-      </c>
-      <c r="D4" s="8">
-        <v>43920</v>
-      </c>
-      <c r="E4" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>80</v>
-      </c>
-      <c r="D5" s="8">
-        <v>43560</v>
-      </c>
-      <c r="E5" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8">
-        <v>45658</v>
-      </c>
-      <c r="E6" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7">
-        <v>71</v>
-      </c>
-      <c r="D7" s="8">
-        <v>44291</v>
-      </c>
-      <c r="E7" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
         <v>72</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="3">
         <v>44623</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
         <v>43</v>
       </c>
     </row>
@@ -668,101 +574,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>